--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H2">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q2">
-        <v>0.007410119991222221</v>
+        <v>0.017214538669</v>
       </c>
       <c r="R2">
-        <v>0.066691079921</v>
+        <v>0.154930848021</v>
       </c>
       <c r="S2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="T2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H3">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>43.483467</v>
       </c>
       <c r="O3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q3">
-        <v>0.7414752477876667</v>
+        <v>1.505402459036334</v>
       </c>
       <c r="R3">
-        <v>6.673277230089</v>
+        <v>13.548622131327</v>
       </c>
       <c r="S3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="T3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H4">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N4">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O4">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P4">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q4">
-        <v>0.2325527569165556</v>
+        <v>0.5860713285197777</v>
       </c>
       <c r="R4">
-        <v>2.092974812249</v>
+        <v>5.274641956678</v>
       </c>
       <c r="S4">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="T4">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H5">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N5">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q5">
-        <v>0.004664475997999999</v>
+        <v>0.01766962002955556</v>
       </c>
       <c r="R5">
-        <v>0.04198028398199999</v>
+        <v>0.159026580266</v>
       </c>
       <c r="S5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="T5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
     </row>
   </sheetData>
